--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -453,6 +453,20 @@
   </si>
   <si>
     <t>DV-2253</t>
+  </si>
+  <si>
+    <t>免测</t>
+    <rPh sb="0" eb="1">
+      <t>mian'ce</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <rPh sb="0" eb="1">
+      <t>da'yu</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1475,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1617,7 +1631,7 @@
         <v>89</v>
       </c>
       <c r="O2" s="53" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P2" s="62" t="s">
         <v>91</v>
@@ -1679,7 +1693,7 @@
         <v>88</v>
       </c>
       <c r="O3" s="53" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P3" s="62" t="s">
         <v>91</v>
@@ -1741,7 +1755,7 @@
         <v>88</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P4" s="62" t="s">
         <v>91</v>
@@ -1927,7 +1941,7 @@
         <v>88</v>
       </c>
       <c r="O7" s="53" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P7" s="62" t="s">
         <v>91</v>
@@ -1989,7 +2003,7 @@
         <v>88</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P8" s="62" t="s">
         <v>91</v>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="440" windowWidth="28100" windowHeight="17560"/>
+    <workbookView xWindow="13460" yWindow="440" windowWidth="28100" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="100">
   <si>
     <t>No</t>
   </si>
@@ -467,6 +467,9 @@
       <t>da'yu</t>
     </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2256</t>
   </si>
 </sst>
 </file>
@@ -1489,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1975,7 +1978,7 @@
         <v>79</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F8" s="53" t="s">
         <v>75</v>
@@ -2015,8 +2018,8 @@
         <v>92</v>
       </c>
       <c r="S8" s="67"/>
-      <c r="T8" s="77">
-        <v>7781</v>
+      <c r="T8" s="77" t="s">
+        <v>99</v>
       </c>
       <c r="U8" s="59"/>
       <c r="V8" s="66"/>
@@ -5931,7 +5934,7 @@
     <hyperlink ref="T5" r:id="rId4" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7755"/>
     <hyperlink ref="T6" r:id="rId5" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7756"/>
     <hyperlink ref="T7" r:id="rId6" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7763"/>
-    <hyperlink ref="T8" r:id="rId7" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7781"/>
+    <hyperlink ref="T8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.8 20170120/版本Bug和特性计划及评审表v5.2.8_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="440" windowWidth="28100" windowHeight="17560"/>
+    <workbookView xWindow="1920" yWindow="1560" windowWidth="28100" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
